--- a/testingweek/Book1.xlsx
+++ b/testingweek/Book1.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\testingweek\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>step no</t>
   </si>
@@ -53,35 +49,62 @@
     <t>navigate to add user</t>
   </si>
   <si>
-    <t>body &gt; div &gt; center &gt; table &gt; tbody &gt; tr:nth-child(2) &gt; td &gt; div &gt; center &gt; table &gt; tbody &gt; tr &gt; td:nth-child(2) &gt; p &gt; small &gt; a:nth-child(6)</t>
-  </si>
-  <si>
-    <t>body &gt; table &gt; tbody &gt; tr &gt; td.auto-style1 &gt; form &gt; div &gt; center &gt; table &gt; tbody &gt; tr &gt; td:nth-child(1) &gt; div &gt; center &gt; table &gt; tbody &gt; tr:nth-child(1) &gt; td:nth-child(2) &gt; p &gt; input</t>
-  </si>
-  <si>
     <t>input username</t>
   </si>
   <si>
     <t>input password</t>
   </si>
   <si>
-    <t>body &gt; table &gt; tbody &gt; tr &gt; td.auto-style1 &gt; form &gt; div &gt; center &gt; table &gt; tbody &gt; tr &gt; td:nth-child(1) &gt; div &gt; center &gt; table &gt; tbody &gt; tr:nth-child(2) &gt; td:nth-child(2) &gt; p &gt; input[type="password"]</t>
-  </si>
-  <si>
     <t>http://thedemosite.co.uk/addauser.php</t>
   </si>
   <si>
-    <t>body &gt; table &gt; tbody &gt; tr &gt; td.auto-style1 &gt; form &gt; div &gt; center &gt; table &gt; tbody &gt; tr &gt; td:nth-child(1) &gt; div &gt; center &gt; table &gt; tbody &gt; tr:nth-child(3) &gt; td:nth-child(2) &gt; p &gt; input[type="button"]</t>
-  </si>
-  <si>
-    <t>click save</t>
+    <t>click add user</t>
+  </si>
+  <si>
+    <t>enter  'Brendan' in Add Your test username</t>
+  </si>
+  <si>
+    <t>enter 'Password' inAdd Your test password</t>
+  </si>
+  <si>
+    <t>Save username and password</t>
+  </si>
+  <si>
+    <t>click Save</t>
+  </si>
+  <si>
+    <t>navigate to login</t>
+  </si>
+  <si>
+    <t>click login</t>
+  </si>
+  <si>
+    <t>enter user name</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
+    <t>enter PASSWORD</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>click test login</t>
+  </si>
+  <si>
+    <t>**Successful Login**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +119,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,9 +155,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,18 +441,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="172.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,34 +500,69 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
